--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H2">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J2">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7301833333333333</v>
+        <v>1.620945</v>
       </c>
       <c r="N2">
-        <v>2.19055</v>
+        <v>4.862835</v>
       </c>
       <c r="O2">
-        <v>0.1670361508916995</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P2">
-        <v>0.1670361508916995</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q2">
-        <v>41.65350320895</v>
+        <v>57.89219439879</v>
       </c>
       <c r="R2">
-        <v>374.88152888055</v>
+        <v>521.0297495891101</v>
       </c>
       <c r="S2">
-        <v>0.04158698890128134</v>
+        <v>0.06253497870084641</v>
       </c>
       <c r="T2">
-        <v>0.04158698890128135</v>
+        <v>0.06253497870084643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H3">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J3">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.620945</v>
+        <v>1.421245</v>
       </c>
       <c r="N3">
-        <v>4.862835</v>
+        <v>4.263735</v>
       </c>
       <c r="O3">
-        <v>0.3708060719095377</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P3">
-        <v>0.3708060719095377</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q3">
-        <v>92.467240317315</v>
+        <v>50.75989119205667</v>
       </c>
       <c r="R3">
-        <v>832.2051628558352</v>
+        <v>456.83902072851</v>
       </c>
       <c r="S3">
-        <v>0.09231958420203258</v>
+        <v>0.05483068568253979</v>
       </c>
       <c r="T3">
-        <v>0.0923195842020326</v>
+        <v>0.0548306856825398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.045267</v>
+        <v>35.71508866666667</v>
       </c>
       <c r="H4">
-        <v>171.135801</v>
+        <v>107.145266</v>
       </c>
       <c r="I4">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="J4">
-        <v>0.2489699905037019</v>
+        <v>0.1390302752364672</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,33 +679,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.36727</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N4">
-        <v>4.10181</v>
+        <v>1.68468</v>
       </c>
       <c r="O4">
-        <v>0.3127755833416639</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P4">
-        <v>0.3127755833416639</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q4">
-        <v>77.99628221108999</v>
+        <v>20.05616519165334</v>
       </c>
       <c r="R4">
-        <v>701.96653989981</v>
+        <v>180.50548672488</v>
       </c>
       <c r="S4">
-        <v>0.07787173401436388</v>
+        <v>0.02166461085308095</v>
       </c>
       <c r="T4">
-        <v>0.0778717340143639</v>
+        <v>0.02166461085308096</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.045267</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H5">
-        <v>171.135801</v>
+        <v>162.270569</v>
       </c>
       <c r="I5">
-        <v>0.2489699905037019</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J5">
-        <v>0.2489699905037019</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6530106666666667</v>
+        <v>1.620945</v>
       </c>
       <c r="N5">
-        <v>1.959032</v>
+        <v>4.862835</v>
       </c>
       <c r="O5">
-        <v>0.1493821938570989</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P5">
-        <v>0.1493821938570989</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q5">
-        <v>37.25116783384801</v>
+        <v>87.67722248923499</v>
       </c>
       <c r="R5">
-        <v>335.2605105046321</v>
+        <v>789.0950024031149</v>
       </c>
       <c r="S5">
-        <v>0.03719168338602406</v>
+        <v>0.09470867874077821</v>
       </c>
       <c r="T5">
-        <v>0.03719168338602406</v>
+        <v>0.09470867874077821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H6">
         <v>162.270569</v>
       </c>
       <c r="I6">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J6">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7301833333333333</v>
+        <v>1.421245</v>
       </c>
       <c r="N6">
-        <v>2.19055</v>
+        <v>4.263735</v>
       </c>
       <c r="O6">
-        <v>0.1670361508916995</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P6">
-        <v>0.1670361508916995</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q6">
-        <v>39.49575499143888</v>
+        <v>76.87541161280166</v>
       </c>
       <c r="R6">
-        <v>355.4617949229499</v>
+        <v>691.878704515215</v>
       </c>
       <c r="S6">
-        <v>0.03943268627940454</v>
+        <v>0.08304059429341362</v>
       </c>
       <c r="T6">
-        <v>0.03943268627940455</v>
+        <v>0.08304059429341362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.09018966666665</v>
+        <v>54.09018966666667</v>
       </c>
       <c r="H7">
         <v>162.270569</v>
       </c>
       <c r="I7">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="J7">
-        <v>0.2360727666969011</v>
+        <v>0.2105601368412127</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.620945</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N7">
-        <v>4.862835</v>
+        <v>1.68468</v>
       </c>
       <c r="O7">
-        <v>0.3708060719095377</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P7">
-        <v>0.3708060719095377</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q7">
-        <v>87.67722248923498</v>
+        <v>30.37488690921333</v>
       </c>
       <c r="R7">
-        <v>789.0950024031149</v>
+        <v>273.37398218292</v>
       </c>
       <c r="S7">
-        <v>0.0875372153036946</v>
+        <v>0.03281086380702085</v>
       </c>
       <c r="T7">
-        <v>0.08753721530369461</v>
+        <v>0.03281086380702086</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.09018966666665</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H8">
-        <v>162.270569</v>
+        <v>304.358804</v>
       </c>
       <c r="I8">
-        <v>0.2360727666969011</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J8">
-        <v>0.2360727666969011</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.36727</v>
+        <v>1.620945</v>
       </c>
       <c r="N8">
-        <v>4.10181</v>
+        <v>4.862835</v>
       </c>
       <c r="O8">
-        <v>0.3127755833416639</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P8">
-        <v>0.3127755833416639</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q8">
-        <v>73.9558936255433</v>
+        <v>164.44962718326</v>
       </c>
       <c r="R8">
-        <v>665.6030426298897</v>
+        <v>1480.04664464934</v>
       </c>
       <c r="S8">
-        <v>0.07383779731470376</v>
+        <v>0.1776380052624544</v>
       </c>
       <c r="T8">
-        <v>0.07383779731470377</v>
+        <v>0.1776380052624545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.09018966666665</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H9">
-        <v>162.270569</v>
+        <v>304.358804</v>
       </c>
       <c r="I9">
-        <v>0.2360727666969011</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J9">
-        <v>0.2360727666969011</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6530106666666667</v>
+        <v>1.421245</v>
       </c>
       <c r="N9">
-        <v>1.959032</v>
+        <v>4.263735</v>
       </c>
       <c r="O9">
-        <v>0.1493821938570989</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P9">
-        <v>0.1493821938570989</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q9">
-        <v>35.32147081435644</v>
+        <v>144.1894761303266</v>
       </c>
       <c r="R9">
-        <v>317.893237329208</v>
+        <v>1297.70528517294</v>
       </c>
       <c r="S9">
-        <v>0.03526506779909815</v>
+        <v>0.155753049479925</v>
       </c>
       <c r="T9">
-        <v>0.03526506779909815</v>
+        <v>0.155753049479925</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.54489333333333</v>
+        <v>101.4529346666666</v>
       </c>
       <c r="H10">
-        <v>151.63468</v>
+        <v>304.358804</v>
       </c>
       <c r="I10">
-        <v>0.2205995742505793</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="J10">
-        <v>0.2205995742505794</v>
+        <v>0.3949319449238378</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,33 +1051,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7301833333333333</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N10">
-        <v>2.19055</v>
+        <v>1.68468</v>
       </c>
       <c r="O10">
-        <v>0.1670361508916995</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P10">
-        <v>0.1670361508916995</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q10">
-        <v>36.90703869711111</v>
+        <v>56.97190999141332</v>
       </c>
       <c r="R10">
-        <v>332.163348274</v>
+        <v>512.7471899227199</v>
       </c>
       <c r="S10">
-        <v>0.03684810377116444</v>
+        <v>0.06154089018145829</v>
       </c>
       <c r="T10">
-        <v>0.03684810377116445</v>
+        <v>0.06154089018145831</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.54489333333333</v>
+        <v>65.628919</v>
       </c>
       <c r="H11">
-        <v>151.63468</v>
+        <v>196.886757</v>
       </c>
       <c r="I11">
-        <v>0.2205995742505793</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J11">
-        <v>0.2205995742505794</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,27 +1119,27 @@
         <v>4.862835</v>
       </c>
       <c r="O11">
-        <v>0.3708060719095377</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="P11">
-        <v>0.3708060719095377</v>
+        <v>0.4497939646201873</v>
       </c>
       <c r="Q11">
-        <v>81.9304921242</v>
+        <v>106.380868108455</v>
       </c>
       <c r="R11">
-        <v>737.3744291178001</v>
+        <v>957.4278129760949</v>
       </c>
       <c r="S11">
-        <v>0.08179966159277371</v>
+        <v>0.1149123019161082</v>
       </c>
       <c r="T11">
-        <v>0.08179966159277373</v>
+        <v>0.1149123019161082</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.54489333333333</v>
+        <v>65.628919</v>
       </c>
       <c r="H12">
-        <v>151.63468</v>
+        <v>196.886757</v>
       </c>
       <c r="I12">
-        <v>0.2205995742505793</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J12">
-        <v>0.2205995742505794</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.36727</v>
+        <v>1.421245</v>
       </c>
       <c r="N12">
-        <v>4.10181</v>
+        <v>4.263735</v>
       </c>
       <c r="O12">
-        <v>0.3127755833416639</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="P12">
-        <v>0.3127755833416639</v>
+        <v>0.3943794658342005</v>
       </c>
       <c r="Q12">
-        <v>69.10851630786665</v>
+        <v>93.27477298415499</v>
       </c>
       <c r="R12">
-        <v>621.9766467707999</v>
+        <v>839.4729568573948</v>
       </c>
       <c r="S12">
-        <v>0.06899816052114766</v>
+        <v>0.100755136378322</v>
       </c>
       <c r="T12">
-        <v>0.06899816052114767</v>
+        <v>0.100755136378322</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.54489333333333</v>
+        <v>65.628919</v>
       </c>
       <c r="H13">
-        <v>151.63468</v>
+        <v>196.886757</v>
       </c>
       <c r="I13">
-        <v>0.2205995742505793</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="J13">
-        <v>0.2205995742505794</v>
+        <v>0.2554776429984823</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.6530106666666667</v>
+        <v>0.5615599999999999</v>
       </c>
       <c r="N13">
-        <v>1.959032</v>
+        <v>1.68468</v>
       </c>
       <c r="O13">
-        <v>0.1493821938570989</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="P13">
-        <v>0.1493821938570989</v>
+        <v>0.1558265695456122</v>
       </c>
       <c r="Q13">
-        <v>33.00635449219556</v>
+        <v>36.85457575363999</v>
       </c>
       <c r="R13">
-        <v>297.05719042976</v>
+        <v>331.69118178276</v>
       </c>
       <c r="S13">
-        <v>0.03295364836549352</v>
+        <v>0.03981020470405209</v>
       </c>
       <c r="T13">
-        <v>0.03295364836549352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>67.444722</v>
-      </c>
-      <c r="H14">
-        <v>202.334166</v>
-      </c>
-      <c r="I14">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="J14">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.7301833333333333</v>
-      </c>
-      <c r="N14">
-        <v>2.19055</v>
-      </c>
-      <c r="O14">
-        <v>0.1670361508916995</v>
-      </c>
-      <c r="P14">
-        <v>0.1670361508916995</v>
-      </c>
-      <c r="Q14">
-        <v>49.24701192569999</v>
-      </c>
-      <c r="R14">
-        <v>443.2231073313</v>
-      </c>
-      <c r="S14">
-        <v>0.04916837193984919</v>
-      </c>
-      <c r="T14">
-        <v>0.0491683719398492</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>67.444722</v>
-      </c>
-      <c r="H15">
-        <v>202.334166</v>
-      </c>
-      <c r="I15">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="J15">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.620945</v>
-      </c>
-      <c r="N15">
-        <v>4.862835</v>
-      </c>
-      <c r="O15">
-        <v>0.3708060719095377</v>
-      </c>
-      <c r="P15">
-        <v>0.3708060719095377</v>
-      </c>
-      <c r="Q15">
-        <v>109.32418490229</v>
-      </c>
-      <c r="R15">
-        <v>983.91766412061</v>
-      </c>
-      <c r="S15">
-        <v>0.1091496108110368</v>
-      </c>
-      <c r="T15">
-        <v>0.1091496108110368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>67.444722</v>
-      </c>
-      <c r="H16">
-        <v>202.334166</v>
-      </c>
-      <c r="I16">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="J16">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>1.36727</v>
-      </c>
-      <c r="N16">
-        <v>4.10181</v>
-      </c>
-      <c r="O16">
-        <v>0.3127755833416639</v>
-      </c>
-      <c r="P16">
-        <v>0.3127755833416639</v>
-      </c>
-      <c r="Q16">
-        <v>92.21514504893999</v>
-      </c>
-      <c r="R16">
-        <v>829.9363054404598</v>
-      </c>
-      <c r="S16">
-        <v>0.09206789149144863</v>
-      </c>
-      <c r="T16">
-        <v>0.09206789149144863</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>67.444722</v>
-      </c>
-      <c r="H17">
-        <v>202.334166</v>
-      </c>
-      <c r="I17">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="J17">
-        <v>0.2943576685488177</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.6530106666666667</v>
-      </c>
-      <c r="N17">
-        <v>1.959032</v>
-      </c>
-      <c r="O17">
-        <v>0.1493821938570989</v>
-      </c>
-      <c r="P17">
-        <v>0.1493821938570989</v>
-      </c>
-      <c r="Q17">
-        <v>44.042122876368</v>
-      </c>
-      <c r="R17">
-        <v>396.379105887312</v>
-      </c>
-      <c r="S17">
-        <v>0.04397179430648315</v>
-      </c>
-      <c r="T17">
-        <v>0.04397179430648314</v>
+        <v>0.0398102047040521</v>
       </c>
     </row>
   </sheetData>
